--- a/2023-05/202305/01_基本設計書/02_内部レビュー/基本設計書内部レビュー.xlsx
+++ b/2023-05/202305/01_基本設計書/02_内部レビュー/基本設計書内部レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\202305\01_基本設計書\02_内部レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE210B70-4F79-4499-8365-BA679457C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100185E5-1A72-4859-9E50-BA77BACD3626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,19 +712,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>在庫状況:表から選択</t>
-    <rPh sb="0" eb="4">
-      <t>ｻﾞｲｺｼﾞｮｳｷｮｳ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ﾋｮｳ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ｾﾝﾀｸ</t>
     </rPh>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1810,6 +1797,19 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ﾆﾁｼﾞ</t>
+    </rPh>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>単位:表から選択</t>
+    <rPh sb="0" eb="2">
+      <t>ﾀﾝｲ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ﾋｮｳ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｾﾝﾀｸ</t>
     </rPh>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -3078,6 +3078,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3120,74 +3129,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3225,6 +3174,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3247,75 +3247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3282,75 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3378,13 +3378,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3414,13 +3414,13 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
@@ -10366,72 +10366,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="183"/>
+      <c r="AE4" s="183"/>
       <c r="AF4" s="43"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="180"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="183"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="183"/>
       <c r="AF5" s="43"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -10603,122 +10603,122 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="26"/>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="191" t="s">
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="191" t="s">
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="192"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="191" t="s">
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="191" t="s">
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="193"/>
+      <c r="AE11" s="179"/>
       <c r="AF11" s="55"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="26"/>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="187" t="s">
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="187" t="s">
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="181" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE12" s="183"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE12" s="186"/>
       <c r="AF12" s="55"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="26"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="186"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="189"/>
       <c r="AF13" s="55"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -11067,12 +11067,12 @@
       <c r="C24" s="175"/>
       <c r="D24" s="175"/>
       <c r="E24" s="176"/>
-      <c r="F24" s="177">
+      <c r="F24" s="180">
         <v>45048</v>
       </c>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="179"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="182"/>
       <c r="J24" s="174" t="s">
         <v>70</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="AA24" s="175"/>
       <c r="AB24" s="176"/>
       <c r="AC24" s="174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AD24" s="175"/>
       <c r="AE24" s="176"/>
@@ -11107,10 +11107,10 @@
       <c r="C25" s="175"/>
       <c r="D25" s="175"/>
       <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="179"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
       <c r="J25" s="174"/>
       <c r="K25" s="175"/>
       <c r="L25" s="175"/>
@@ -11141,10 +11141,10 @@
       <c r="C26" s="175"/>
       <c r="D26" s="175"/>
       <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="179"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="182"/>
       <c r="J26" s="174"/>
       <c r="K26" s="175"/>
       <c r="L26" s="175"/>
@@ -11175,10 +11175,10 @@
       <c r="C27" s="175"/>
       <c r="D27" s="175"/>
       <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="179"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="182"/>
       <c r="J27" s="174"/>
       <c r="K27" s="175"/>
       <c r="L27" s="175"/>
@@ -11209,10 +11209,10 @@
       <c r="C28" s="175"/>
       <c r="D28" s="175"/>
       <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="182"/>
       <c r="J28" s="174"/>
       <c r="K28" s="175"/>
       <c r="L28" s="175"/>
@@ -11243,10 +11243,10 @@
       <c r="C29" s="175"/>
       <c r="D29" s="175"/>
       <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="179"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="182"/>
       <c r="J29" s="174"/>
       <c r="K29" s="175"/>
       <c r="L29" s="175"/>
@@ -11277,10 +11277,10 @@
       <c r="C30" s="175"/>
       <c r="D30" s="175"/>
       <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="182"/>
       <c r="J30" s="174"/>
       <c r="K30" s="175"/>
       <c r="L30" s="175"/>
@@ -11311,10 +11311,10 @@
       <c r="C31" s="175"/>
       <c r="D31" s="175"/>
       <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="179"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
       <c r="J31" s="174"/>
       <c r="K31" s="175"/>
       <c r="L31" s="175"/>
@@ -11345,10 +11345,10 @@
       <c r="C32" s="175"/>
       <c r="D32" s="175"/>
       <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="179"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="182"/>
       <c r="J32" s="174"/>
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
@@ -11379,10 +11379,10 @@
       <c r="C33" s="175"/>
       <c r="D33" s="175"/>
       <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="182"/>
       <c r="J33" s="174"/>
       <c r="K33" s="175"/>
       <c r="L33" s="175"/>
@@ -11413,10 +11413,10 @@
       <c r="C34" s="175"/>
       <c r="D34" s="175"/>
       <c r="E34" s="176"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="182"/>
       <c r="J34" s="174"/>
       <c r="K34" s="175"/>
       <c r="L34" s="175"/>
@@ -11447,10 +11447,10 @@
       <c r="C35" s="175"/>
       <c r="D35" s="175"/>
       <c r="E35" s="176"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="179"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="182"/>
       <c r="J35" s="174"/>
       <c r="K35" s="175"/>
       <c r="L35" s="175"/>
@@ -11481,10 +11481,10 @@
       <c r="C36" s="175"/>
       <c r="D36" s="175"/>
       <c r="E36" s="176"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="179"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="182"/>
       <c r="J36" s="174"/>
       <c r="K36" s="175"/>
       <c r="L36" s="175"/>
@@ -11515,10 +11515,10 @@
       <c r="C37" s="175"/>
       <c r="D37" s="175"/>
       <c r="E37" s="176"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="179"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="182"/>
       <c r="J37" s="174"/>
       <c r="K37" s="175"/>
       <c r="L37" s="175"/>
@@ -11549,10 +11549,10 @@
       <c r="C38" s="175"/>
       <c r="D38" s="175"/>
       <c r="E38" s="176"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="179"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="182"/>
       <c r="J38" s="174"/>
       <c r="K38" s="175"/>
       <c r="L38" s="175"/>
@@ -11583,10 +11583,10 @@
       <c r="C39" s="175"/>
       <c r="D39" s="175"/>
       <c r="E39" s="176"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="179"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="182"/>
       <c r="J39" s="174"/>
       <c r="K39" s="175"/>
       <c r="L39" s="175"/>
@@ -11617,10 +11617,10 @@
       <c r="C40" s="175"/>
       <c r="D40" s="175"/>
       <c r="E40" s="176"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="179"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="182"/>
       <c r="J40" s="174"/>
       <c r="K40" s="175"/>
       <c r="L40" s="175"/>
@@ -11681,73 +11681,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:AB40"/>
@@ -11764,6 +11697,73 @@
     <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11983,171 +11983,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="191" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="193"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="179"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="191" t="s">
+      <c r="AF2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="193"/>
+      <c r="AG2" s="179"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="181" t="str">
+      <c r="A3" s="184" t="str">
         <f>[1]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="181">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="184">
         <f>[1]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="187" t="str">
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="190" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）／
 入出庫情報一覧（画面）／入出庫登録（画面）</v>
       </c>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="181" t="str">
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="184" t="str">
         <f>[1]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="181" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG3" s="183"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG3" s="186"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196"/>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="186"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="187"/>
+      <c r="AE4" s="189"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="189"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -13587,16 +13587,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -13628,171 +13628,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="191" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="193"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="179"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="191" t="s">
+      <c r="AF2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="193"/>
+      <c r="AG2" s="179"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="181" t="str">
+      <c r="A3" s="184" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="181">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="184">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="187" t="str">
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="190" t="str">
         <f>表紙!M12</f>
         <v>ログイン（画面）</v>
       </c>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="181" t="str">
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="184" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="181" t="str">
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="184" t="str">
         <f>表紙!AD12</f>
         <v>○○</v>
       </c>
-      <c r="AG3" s="183"/>
+      <c r="AG3" s="186"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196"/>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="186"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="187"/>
+      <c r="AE4" s="189"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="189"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -15477,16 +15477,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15505,7 +15505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK24" sqref="AK24"/>
+      <selection pane="bottomLeft" activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -15518,171 +15518,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="211" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="211" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="213"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="212"/>
       <c r="AD2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="63"/>
-      <c r="AF2" s="211" t="s">
+      <c r="AF2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="213"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="197" t="str">
         <f>[2]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="214">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="197">
         <f>[2]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="220" t="str">
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="203" t="str">
         <f>[2]表紙!M12</f>
         <v>在庫情報一覧（画面）</v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="214" t="str">
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="197" t="str">
         <f>[2]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="str">
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="197" t="str">
         <f>[2]表紙!AD12</f>
         <v>張卓群</v>
       </c>
-      <c r="AG3" s="216"/>
+      <c r="AG3" s="199"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
     </row>
     <row r="5" spans="1:177" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
@@ -15922,7 +15922,7 @@
       <c r="N7" s="76"/>
       <c r="O7" s="77"/>
       <c r="P7" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="76"/>
@@ -15984,28 +15984,28 @@
       <c r="AF8" s="76"/>
       <c r="AG8" s="81"/>
       <c r="AK8" s="59" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="76"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="80"/>
       <c r="J9" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" s="79"/>
       <c r="M9" s="80"/>
@@ -16019,22 +16019,22 @@
       <c r="U9" s="85"/>
       <c r="V9" s="85"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="208" t="s">
+      <c r="X9" s="213" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="213"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="208" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" s="209"/>
+      <c r="AB9" s="214"/>
       <c r="AC9" s="76"/>
       <c r="AD9" s="76"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="81"/>
       <c r="AK9" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -16107,26 +16107,26 @@
       <c r="AF11" s="76"/>
       <c r="AG11" s="81"/>
       <c r="AI11" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ11" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AJ11" s="59" t="s">
+      <c r="AL11" s="59" t="s">
         <v>113</v>
-      </c>
-      <c r="AL11" s="59" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="75"/>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="214"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="208" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="209"/>
+      <c r="F12" s="214"/>
       <c r="G12" s="76"/>
       <c r="H12" s="76"/>
       <c r="I12" s="76"/>
@@ -16155,7 +16155,7 @@
       <c r="AF12" s="76"/>
       <c r="AG12" s="81"/>
       <c r="AJ12" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
@@ -16193,130 +16193,130 @@
       <c r="AF13" s="76"/>
       <c r="AG13" s="81"/>
       <c r="AJ13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL13" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="AL13" s="59" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="75"/>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="216"/>
+      <c r="D14" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="209" t="s">
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209" t="s">
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209" t="s">
+      <c r="N14" s="214"/>
+      <c r="O14" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209" t="s">
+      <c r="P14" s="214"/>
+      <c r="Q14" s="217" t="s">
         <v>124</v>
       </c>
-      <c r="P14" s="209"/>
-      <c r="Q14" s="197" t="s">
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="216"/>
+      <c r="V14" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="199" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="200" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB14" s="201"/>
-      <c r="AC14" s="201"/>
-      <c r="AD14" s="201"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="220"/>
       <c r="AE14" s="108"/>
       <c r="AG14" s="109"/>
       <c r="AJ14" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL14" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="AL14" s="59" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="75"/>
-      <c r="B15" s="202" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="198"/>
+      <c r="B15" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="216"/>
       <c r="D15" s="78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="79"/>
       <c r="F15" s="80"/>
       <c r="G15" s="79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="110"/>
       <c r="J15" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="79"/>
       <c r="L15" s="80"/>
-      <c r="M15" s="203">
+      <c r="M15" s="221">
         <v>666</v>
       </c>
-      <c r="N15" s="204"/>
-      <c r="O15" s="205" t="s">
+      <c r="N15" s="222"/>
+      <c r="O15" s="223" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="217" t="s">
         <v>132</v>
       </c>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="197" t="s">
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="216"/>
+      <c r="V15" s="111" t="s">
         <v>133</v>
-      </c>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="111" t="s">
-        <v>134</v>
       </c>
       <c r="W15" s="79"/>
       <c r="X15" s="79"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="80"/>
-      <c r="AA15" s="199" t="s">
+      <c r="AA15" s="218" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="216"/>
+      <c r="AC15" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="207" t="s">
+      <c r="AD15" s="225"/>
+      <c r="AE15" s="112" t="s">
         <v>136</v>
-      </c>
-      <c r="AD15" s="207"/>
-      <c r="AE15" s="112" t="s">
-        <v>137</v>
       </c>
       <c r="AG15" s="109"/>
       <c r="AJ15" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL15" s="59" t="s">
         <v>138</v>
-      </c>
-      <c r="AL15" s="59" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
@@ -16353,7 +16353,7 @@
       <c r="AE16" s="112"/>
       <c r="AG16" s="109"/>
       <c r="AJ16" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="12.75" customHeight="1">
@@ -16389,7 +16389,7 @@
       <c r="AE17" s="112"/>
       <c r="AG17" s="109"/>
       <c r="AJ17" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="12.75" customHeight="1">
@@ -16425,10 +16425,10 @@
       <c r="AE18" s="112"/>
       <c r="AG18" s="109"/>
       <c r="AJ18" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM18" s="59" t="s">
         <v>142</v>
-      </c>
-      <c r="AM18" s="59" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="12.75" customHeight="1">
@@ -16596,7 +16596,7 @@
       <c r="AE23" s="112"/>
       <c r="AG23" s="109"/>
       <c r="AJ23" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="12.75" customHeight="1">
@@ -16632,7 +16632,7 @@
       <c r="AE24" s="112"/>
       <c r="AG24" s="109"/>
       <c r="AK24" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="12.75" customHeight="1">
@@ -16668,7 +16668,7 @@
       <c r="AE25" s="112"/>
       <c r="AG25" s="109"/>
       <c r="AK25" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="12.75" customHeight="1">
@@ -16737,7 +16737,7 @@
       <c r="AE27" s="112"/>
       <c r="AG27" s="109"/>
       <c r="AJ27" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="12.75" customHeight="1">
@@ -16773,7 +16773,7 @@
       <c r="AE28" s="112"/>
       <c r="AG28" s="109"/>
       <c r="AK28" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="12.75" customHeight="1">
@@ -16842,7 +16842,7 @@
       <c r="AE30" s="112"/>
       <c r="AG30" s="109"/>
       <c r="AJ30" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="12.75" customHeight="1">
@@ -16878,7 +16878,7 @@
       <c r="AE31" s="112"/>
       <c r="AG31" s="109"/>
       <c r="AK31" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="12.75" customHeight="1">
@@ -16947,7 +16947,7 @@
       <c r="AE33" s="112"/>
       <c r="AG33" s="109"/>
       <c r="AJ33" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="12.75" customHeight="1">
@@ -16984,7 +16984,7 @@
       <c r="AG34" s="109"/>
       <c r="AJ34" s="121"/>
       <c r="AK34" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="12.75" customHeight="1">
@@ -17020,7 +17020,7 @@
       <c r="AE35" s="112"/>
       <c r="AG35" s="109"/>
       <c r="AK35" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="12.75" customHeight="1">
@@ -17056,7 +17056,7 @@
       <c r="AE36" s="112"/>
       <c r="AG36" s="109"/>
       <c r="AK36" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="12.75" customHeight="1">
@@ -17092,7 +17092,7 @@
       <c r="AE37" s="112"/>
       <c r="AG37" s="109"/>
       <c r="AK37" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="12.75" customHeight="1">
@@ -17226,7 +17226,7 @@
       <c r="AC41" s="128"/>
       <c r="AD41" s="106"/>
       <c r="AE41" s="129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG41" s="109"/>
     </row>
@@ -17320,16 +17320,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="B12:C12"/>
@@ -17343,12 +17339,16 @@
     <mergeCell ref="Q14:U14"/>
     <mergeCell ref="V14:Z14"/>
     <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -17380,172 +17380,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="211" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="211" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="213"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="212"/>
       <c r="AD2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="63"/>
-      <c r="AF2" s="211" t="s">
+      <c r="AF2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="213"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="197" t="str">
         <f>[3]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="214">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="197">
         <f>[3]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="220" t="str">
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="203" t="str">
         <f>[3]表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="214" t="str">
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="197" t="str">
         <f>[3]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="str">
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="197" t="str">
         <f>[3]表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="216"/>
+      <c r="AG3" s="199"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
     </row>
     <row r="5" spans="1:177" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
@@ -19469,172 +19469,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="211" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="211" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="213"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="212"/>
       <c r="AD2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="63"/>
-      <c r="AF2" s="211" t="s">
+      <c r="AF2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="213"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="197" t="str">
         <f>[3]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="214">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="197">
         <f>[3]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="220" t="str">
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="203" t="str">
         <f>[3]表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="214" t="str">
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="197" t="str">
         <f>[3]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="str">
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="197" t="str">
         <f>[3]表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="216"/>
+      <c r="AG3" s="199"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
     </row>
     <row r="5" spans="1:177" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
@@ -21548,171 +21548,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="210" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
+      <c r="A1" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="211" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="211" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="213"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="212"/>
       <c r="AD2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="63"/>
-      <c r="AF2" s="211" t="s">
+      <c r="AF2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="213"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="197" t="str">
         <f>[4]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="214">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="197">
         <f>[4]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="220" t="str">
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="203" t="str">
         <f>[4]表紙!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）／
 入出庫情報一覧（画面）／入出庫登録（画面）</v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="214" t="str">
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="197" t="str">
         <f>[4]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG3" s="216"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG3" s="199"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
     </row>
     <row r="5" spans="1:177" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
@@ -22078,7 +22078,7 @@
       <c r="C7" s="135"/>
       <c r="D7" s="138"/>
       <c r="E7" s="139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="140"/>
       <c r="G7" s="140"/>
@@ -22441,7 +22441,7 @@
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
       <c r="F9" s="146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
@@ -22450,12 +22450,12 @@
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
       <c r="M9" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="79"/>
       <c r="R9" s="79"/>
@@ -22471,7 +22471,7 @@
       <c r="AB9" s="69"/>
       <c r="AC9" s="69"/>
       <c r="AT9" s="149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -22507,32 +22507,32 @@
       <c r="AF10" s="69"/>
       <c r="AG10" s="81"/>
       <c r="AI10" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT10" s="59" t="s">
         <v>160</v>
-      </c>
-      <c r="AT10" s="59" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="79"/>
       <c r="H11" s="79"/>
       <c r="I11" s="88"/>
       <c r="M11" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N11" s="76"/>
       <c r="O11" s="76"/>
       <c r="Q11" s="150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R11" s="151"/>
       <c r="S11" s="151"/>
@@ -22543,10 +22543,10 @@
       <c r="AF11" s="76"/>
       <c r="AG11" s="81"/>
       <c r="AI11" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT11" s="59" t="s">
         <v>166</v>
-      </c>
-      <c r="AT11" s="59" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
@@ -22573,12 +22573,12 @@
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
       <c r="W12" s="230" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X12" s="231"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="230" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB12" s="231"/>
       <c r="AC12" s="76"/>
@@ -22587,38 +22587,38 @@
       <c r="AF12" s="76"/>
       <c r="AG12" s="81"/>
       <c r="AI12" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
       <c r="A13" s="75"/>
       <c r="B13" s="76"/>
       <c r="C13" s="77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
       <c r="F13" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="79"/>
       <c r="H13" s="80"/>
       <c r="I13" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" s="79"/>
       <c r="L13" s="80"/>
       <c r="N13" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="234" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="257" t="s">
-        <v>173</v>
-      </c>
-      <c r="R13" s="258"/>
+      <c r="R13" s="235"/>
       <c r="S13" s="76"/>
       <c r="T13" s="153"/>
       <c r="U13" s="76"/>
@@ -22666,7 +22666,7 @@
       <c r="AF14" s="76"/>
       <c r="AG14" s="81"/>
       <c r="AI14" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
@@ -22704,84 +22704,84 @@
       <c r="AF15" s="76"/>
       <c r="AG15" s="81"/>
       <c r="AI15" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="75"/>
       <c r="B16" s="154"/>
       <c r="C16" s="85"/>
-      <c r="D16" s="259" t="s">
+      <c r="D16" s="236" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260" t="s">
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="260"/>
-      <c r="I16" s="260"/>
-      <c r="J16" s="261" t="s">
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="263" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="265"/>
-      <c r="R16" s="266" t="s">
+      <c r="P16" s="241"/>
+      <c r="Q16" s="242"/>
+      <c r="R16" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="261"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="261"/>
-      <c r="V16" s="261"/>
-      <c r="W16" s="261"/>
-      <c r="X16" s="261"/>
-      <c r="Y16" s="261"/>
-      <c r="Z16" s="261"/>
-      <c r="AA16" s="267"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="238"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="238"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="238"/>
+      <c r="AA16" s="244"/>
       <c r="AB16" s="155"/>
       <c r="AC16" s="156"/>
       <c r="AD16" s="93"/>
       <c r="AE16" s="76"/>
       <c r="AG16" s="109"/>
       <c r="AI16" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.75" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="154"/>
       <c r="C17" s="85"/>
-      <c r="D17" s="247" t="s">
+      <c r="D17" s="245" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="246"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="248">
+        <v>666</v>
+      </c>
+      <c r="H17" s="249"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="250">
-        <v>666</v>
-      </c>
-      <c r="H17" s="251"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="248" t="s">
+      <c r="K17" s="246"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
+      <c r="N17" s="247"/>
+      <c r="O17" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="248"/>
-      <c r="N17" s="249"/>
-      <c r="O17" s="253" t="s">
+      <c r="P17" s="252"/>
+      <c r="Q17" s="253"/>
+      <c r="R17" s="157" t="s">
         <v>183</v>
-      </c>
-      <c r="P17" s="254"/>
-      <c r="Q17" s="255"/>
-      <c r="R17" s="157" t="s">
-        <v>184</v>
       </c>
       <c r="S17" s="123"/>
       <c r="T17" s="123"/>
@@ -22793,42 +22793,42 @@
       <c r="Z17" s="123"/>
       <c r="AA17" s="158"/>
       <c r="AB17" s="159" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE17" s="85"/>
       <c r="AG17" s="109"/>
       <c r="AI17" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="16.5" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="234" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="197"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="203">
+      <c r="D18" s="254" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="217"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="221">
         <v>123</v>
       </c>
-      <c r="H18" s="235"/>
-      <c r="I18" s="204"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="222"/>
       <c r="J18" s="256" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="236" t="s">
-        <v>187</v>
-      </c>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="206"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="224"/>
       <c r="R18" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S18" s="79"/>
       <c r="T18" s="79"/>
@@ -22844,37 +22844,37 @@
       <c r="AE18" s="85"/>
       <c r="AG18" s="109"/>
       <c r="AI18" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.75" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="234" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="197"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="203">
+      <c r="D19" s="254" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="217"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="221">
         <v>456</v>
       </c>
-      <c r="H19" s="235"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="246" t="s">
+      <c r="H19" s="255"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="258" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="257" t="s">
         <v>189</v>
       </c>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="236" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="206"/>
+      <c r="P19" s="223"/>
+      <c r="Q19" s="224"/>
       <c r="R19" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S19" s="79"/>
       <c r="T19" s="79"/>
@@ -22890,37 +22890,37 @@
       <c r="AE19" s="85"/>
       <c r="AG19" s="109"/>
       <c r="AI19" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="12.75" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="234" t="s">
+      <c r="D20" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="217"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="221">
+        <v>666</v>
+      </c>
+      <c r="H20" s="255"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="197"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="203">
-        <v>666</v>
-      </c>
-      <c r="H20" s="235"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="197" t="s">
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="216"/>
+      <c r="O20" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="236" t="s">
+      <c r="P20" s="223"/>
+      <c r="Q20" s="224"/>
+      <c r="R20" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="206"/>
-      <c r="R20" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S20" s="79"/>
       <c r="T20" s="79"/>
@@ -22936,37 +22936,37 @@
       <c r="AE20" s="85"/>
       <c r="AG20" s="109"/>
       <c r="AI20" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.75" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="234" t="s">
+      <c r="D21" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="217"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="221">
+        <v>666</v>
+      </c>
+      <c r="H21" s="255"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="197"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="203">
-        <v>666</v>
-      </c>
-      <c r="H21" s="235"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="197" t="s">
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="216"/>
+      <c r="O21" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="236" t="s">
+      <c r="P21" s="223"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="206"/>
-      <c r="R21" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S21" s="79"/>
       <c r="T21" s="79"/>
@@ -22982,37 +22982,37 @@
       <c r="AE21" s="85"/>
       <c r="AG21" s="109"/>
       <c r="AI21" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="12.75" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="234" t="s">
+      <c r="D22" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="217"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="221">
+        <v>666</v>
+      </c>
+      <c r="H22" s="255"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="197"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="203">
-        <v>666</v>
-      </c>
-      <c r="H22" s="235"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="197" t="s">
+      <c r="K22" s="217"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="216"/>
+      <c r="O22" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="236" t="s">
+      <c r="P22" s="223"/>
+      <c r="Q22" s="224"/>
+      <c r="R22" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="206"/>
-      <c r="R22" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S22" s="79"/>
       <c r="T22" s="79"/>
@@ -23032,30 +23032,30 @@
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
-      <c r="D23" s="234" t="s">
+      <c r="D23" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="217"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="221">
+        <v>666</v>
+      </c>
+      <c r="H23" s="255"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="203">
-        <v>666</v>
-      </c>
-      <c r="H23" s="235"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="197" t="s">
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="216"/>
+      <c r="O23" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="236" t="s">
+      <c r="P23" s="223"/>
+      <c r="Q23" s="224"/>
+      <c r="R23" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="206"/>
-      <c r="R23" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S23" s="79"/>
       <c r="T23" s="79"/>
@@ -23075,30 +23075,30 @@
       <c r="A24" s="75"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
-      <c r="D24" s="234" t="s">
+      <c r="D24" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="217"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="221">
+        <v>666</v>
+      </c>
+      <c r="H24" s="255"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="197"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="203">
-        <v>666</v>
-      </c>
-      <c r="H24" s="235"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="197" t="s">
+      <c r="K24" s="217"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="236" t="s">
+      <c r="P24" s="223"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P24" s="205"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S24" s="79"/>
       <c r="T24" s="79"/>
@@ -23114,37 +23114,37 @@
       <c r="AE24" s="85"/>
       <c r="AG24" s="109"/>
       <c r="AI24" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="234" t="s">
+      <c r="D25" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="217"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="221">
+        <v>666</v>
+      </c>
+      <c r="H25" s="255"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="197"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="203">
-        <v>666</v>
-      </c>
-      <c r="H25" s="235"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="197" t="s">
+      <c r="K25" s="217"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="216"/>
+      <c r="O25" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="236" t="s">
+      <c r="P25" s="223"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="205"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S25" s="79"/>
       <c r="T25" s="79"/>
@@ -23160,37 +23160,37 @@
       <c r="AE25" s="85"/>
       <c r="AG25" s="109"/>
       <c r="AI25" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="12.75" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
-      <c r="D26" s="234" t="s">
+      <c r="D26" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="217"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="221">
+        <v>666</v>
+      </c>
+      <c r="H26" s="255"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="197"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="203">
-        <v>666</v>
-      </c>
-      <c r="H26" s="235"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="197" t="s">
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="216"/>
+      <c r="O26" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="236" t="s">
+      <c r="P26" s="223"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="206"/>
-      <c r="R26" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S26" s="79"/>
       <c r="T26" s="79"/>
@@ -23206,37 +23206,37 @@
       <c r="AE26" s="85"/>
       <c r="AG26" s="109"/>
       <c r="AI26" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="12.75" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="234" t="s">
+      <c r="D27" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="217"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="221">
+        <v>666</v>
+      </c>
+      <c r="H27" s="255"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="197"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="203">
-        <v>666</v>
-      </c>
-      <c r="H27" s="235"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="197" t="s">
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="236" t="s">
+      <c r="P27" s="223"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="206"/>
-      <c r="R27" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S27" s="79"/>
       <c r="T27" s="79"/>
@@ -23256,30 +23256,30 @@
       <c r="A28" s="75"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
-      <c r="D28" s="234" t="s">
+      <c r="D28" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="217"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="221">
+        <v>666</v>
+      </c>
+      <c r="H28" s="255"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="197"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="203">
-        <v>666</v>
-      </c>
-      <c r="H28" s="235"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="197" t="s">
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="236" t="s">
+      <c r="P28" s="223"/>
+      <c r="Q28" s="224"/>
+      <c r="R28" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S28" s="79"/>
       <c r="T28" s="79"/>
@@ -23295,37 +23295,37 @@
       <c r="AE28" s="85"/>
       <c r="AG28" s="109"/>
       <c r="AI28" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
-      <c r="D29" s="234" t="s">
+      <c r="D29" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="217"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="221">
+        <v>666</v>
+      </c>
+      <c r="H29" s="255"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="197"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="203">
-        <v>666</v>
-      </c>
-      <c r="H29" s="235"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="197" t="s">
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="236" t="s">
+      <c r="P29" s="223"/>
+      <c r="Q29" s="224"/>
+      <c r="R29" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P29" s="205"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S29" s="79"/>
       <c r="T29" s="79"/>
@@ -23341,37 +23341,37 @@
       <c r="AE29" s="85"/>
       <c r="AG29" s="109"/>
       <c r="AI29" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
-      <c r="D30" s="234" t="s">
+      <c r="D30" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="217"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="221">
+        <v>666</v>
+      </c>
+      <c r="H30" s="255"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="197"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="203">
-        <v>666</v>
-      </c>
-      <c r="H30" s="235"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="197" t="s">
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="236" t="s">
+      <c r="P30" s="223"/>
+      <c r="Q30" s="224"/>
+      <c r="R30" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P30" s="205"/>
-      <c r="Q30" s="206"/>
-      <c r="R30" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S30" s="79"/>
       <c r="T30" s="79"/>
@@ -23391,30 +23391,30 @@
       <c r="A31" s="75"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="234" t="s">
+      <c r="D31" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="217"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="221">
+        <v>666</v>
+      </c>
+      <c r="H31" s="255"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="197"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="203">
-        <v>666</v>
-      </c>
-      <c r="H31" s="235"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="197" t="s">
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="236" t="s">
+      <c r="P31" s="223"/>
+      <c r="Q31" s="224"/>
+      <c r="R31" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P31" s="205"/>
-      <c r="Q31" s="206"/>
-      <c r="R31" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S31" s="79"/>
       <c r="T31" s="79"/>
@@ -23430,37 +23430,37 @@
       <c r="AE31" s="85"/>
       <c r="AG31" s="109"/>
       <c r="AI31" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
-      <c r="D32" s="234" t="s">
+      <c r="D32" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="217"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="221">
+        <v>666</v>
+      </c>
+      <c r="H32" s="255"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="203">
-        <v>666</v>
-      </c>
-      <c r="H32" s="235"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="197" t="s">
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="236" t="s">
+      <c r="P32" s="223"/>
+      <c r="Q32" s="224"/>
+      <c r="R32" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P32" s="205"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S32" s="79"/>
       <c r="T32" s="79"/>
@@ -23476,37 +23476,37 @@
       <c r="AE32" s="85"/>
       <c r="AG32" s="109"/>
       <c r="AI32" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="12.75" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="234" t="s">
+      <c r="D33" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="217"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="221">
+        <v>666</v>
+      </c>
+      <c r="H33" s="255"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="197"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="203">
-        <v>666</v>
-      </c>
-      <c r="H33" s="235"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="197" t="s">
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="236" t="s">
+      <c r="P33" s="223"/>
+      <c r="Q33" s="224"/>
+      <c r="R33" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P33" s="205"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S33" s="79"/>
       <c r="T33" s="79"/>
@@ -23526,30 +23526,30 @@
       <c r="A34" s="75"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="234" t="s">
+      <c r="D34" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="217"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="221">
+        <v>666</v>
+      </c>
+      <c r="H34" s="255"/>
+      <c r="I34" s="222"/>
+      <c r="J34" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="197"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="203">
-        <v>666</v>
-      </c>
-      <c r="H34" s="235"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="197" t="s">
+      <c r="K34" s="217"/>
+      <c r="L34" s="217"/>
+      <c r="M34" s="217"/>
+      <c r="N34" s="216"/>
+      <c r="O34" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="197"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="236" t="s">
+      <c r="P34" s="223"/>
+      <c r="Q34" s="224"/>
+      <c r="R34" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P34" s="205"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S34" s="79"/>
       <c r="T34" s="79"/>
@@ -23569,30 +23569,30 @@
       <c r="A35" s="75"/>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="234" t="s">
+      <c r="D35" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="217"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="221">
+        <v>666</v>
+      </c>
+      <c r="H35" s="255"/>
+      <c r="I35" s="222"/>
+      <c r="J35" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="197"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="203">
-        <v>666</v>
-      </c>
-      <c r="H35" s="235"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="197" t="s">
+      <c r="K35" s="217"/>
+      <c r="L35" s="217"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="216"/>
+      <c r="O35" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="236" t="s">
+      <c r="P35" s="223"/>
+      <c r="Q35" s="224"/>
+      <c r="R35" s="111" t="s">
         <v>183</v>
-      </c>
-      <c r="P35" s="205"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="111" t="s">
-        <v>184</v>
       </c>
       <c r="S35" s="79"/>
       <c r="T35" s="79"/>
@@ -23612,30 +23612,30 @@
       <c r="A36" s="75"/>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
-      <c r="D36" s="237" t="s">
+      <c r="D36" s="259" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="260"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="262">
+        <v>666</v>
+      </c>
+      <c r="H36" s="263"/>
+      <c r="I36" s="264"/>
+      <c r="J36" s="260" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="238"/>
-      <c r="F36" s="239"/>
-      <c r="G36" s="240">
-        <v>666</v>
-      </c>
-      <c r="H36" s="241"/>
-      <c r="I36" s="242"/>
-      <c r="J36" s="238" t="s">
+      <c r="K36" s="260"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="261"/>
+      <c r="O36" s="265" t="s">
         <v>182</v>
       </c>
-      <c r="K36" s="238"/>
-      <c r="L36" s="238"/>
-      <c r="M36" s="238"/>
-      <c r="N36" s="239"/>
-      <c r="O36" s="243" t="s">
+      <c r="P36" s="266"/>
+      <c r="Q36" s="267"/>
+      <c r="R36" s="161" t="s">
         <v>183</v>
-      </c>
-      <c r="P36" s="244"/>
-      <c r="Q36" s="245"/>
-      <c r="R36" s="161" t="s">
-        <v>184</v>
       </c>
       <c r="S36" s="162"/>
       <c r="T36" s="162"/>
@@ -23647,7 +23647,7 @@
       <c r="Z36" s="162"/>
       <c r="AA36" s="164"/>
       <c r="AB36" s="165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD36" s="69"/>
       <c r="AE36" s="85"/>
@@ -23688,7 +23688,7 @@
       <c r="AF37" s="76"/>
       <c r="AG37" s="81"/>
       <c r="AI37" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="12.75" customHeight="1">
@@ -23711,7 +23711,7 @@
       <c r="AF38" s="69"/>
       <c r="AG38" s="81"/>
       <c r="AI38" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="12.75" customHeight="1" thickBot="1">
@@ -23732,7 +23732,7 @@
       <c r="AF39" s="69"/>
       <c r="AG39" s="81"/>
       <c r="AI39" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="12.75" customHeight="1">
@@ -23770,121 +23770,31 @@
       <c r="AF40" s="105"/>
       <c r="AG40" s="106"/>
       <c r="AI40" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI43" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI44" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI45" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="12.75" customHeight="1">
       <c r="AI46" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="AA12:AB13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:Q34"/>
     <mergeCell ref="AA38:AB39"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
@@ -23894,6 +23804,96 @@
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:N36"/>
     <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="AA12:AB13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="1">
@@ -23932,171 +23932,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="211" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="211" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="213"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="212"/>
       <c r="AD2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="63"/>
-      <c r="AF2" s="211" t="s">
+      <c r="AF2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="213"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="197" t="str">
         <f>[4]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="214">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="197">
         <f>[4]表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="220" t="str">
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="203" t="str">
         <f>[4]表紙!M12</f>
         <v>ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）／
 入出庫情報一覧（画面）／入出庫登録（画面）</v>
       </c>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="214" t="str">
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="197" t="str">
         <f>[4]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG3" s="216"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG3" s="199"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="224"/>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
-      <c r="AB4" s="224"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
     </row>
     <row r="5" spans="1:177" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
@@ -24462,13 +24462,13 @@
       <c r="C7" s="135"/>
       <c r="D7" s="135"/>
       <c r="E7" s="135"/>
-      <c r="F7" s="290" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
+      <c r="F7" s="278" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
       <c r="K7" s="135"/>
       <c r="L7" s="135"/>
       <c r="M7" s="135"/>
@@ -24643,11 +24643,11 @@
       <c r="C8" s="135"/>
       <c r="D8" s="135"/>
       <c r="E8" s="135"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="291"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
       <c r="K8" s="135"/>
       <c r="L8" s="135"/>
       <c r="M8" s="135"/>
@@ -24685,7 +24685,7 @@
       <c r="AS8" s="70"/>
       <c r="AT8" s="70"/>
       <c r="AU8" s="170" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AV8" s="70"/>
       <c r="AW8" s="70"/>
@@ -24853,10 +24853,10 @@
       <c r="AF9" s="69"/>
       <c r="AG9" s="171"/>
       <c r="AI9" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU9" s="59" t="s">
         <v>212</v>
-      </c>
-      <c r="AU9" s="59" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -24866,31 +24866,31 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
       <c r="G10" s="280" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="281"/>
       <c r="I10" s="281"/>
       <c r="J10" s="281"/>
       <c r="K10" s="282"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="289"/>
-      <c r="T10" s="289"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
       <c r="U10" s="76"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="81"/>
       <c r="AH10" s="172"/>
       <c r="AI10" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU10" s="59" t="s">
         <v>215</v>
-      </c>
-      <c r="AU10" s="59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
@@ -24904,15 +24904,15 @@
       <c r="I11" s="284"/>
       <c r="J11" s="284"/>
       <c r="K11" s="285"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="289"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="289"/>
-      <c r="S11" s="289"/>
-      <c r="T11" s="289"/>
+      <c r="L11" s="277"/>
+      <c r="M11" s="277"/>
+      <c r="N11" s="277"/>
+      <c r="O11" s="277"/>
+      <c r="P11" s="277"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="277"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="277"/>
       <c r="U11" s="76"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
@@ -24930,21 +24930,21 @@
       <c r="I12" s="287"/>
       <c r="J12" s="287"/>
       <c r="K12" s="288"/>
-      <c r="L12" s="289"/>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="289"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="289"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="277"/>
+      <c r="N12" s="277"/>
+      <c r="O12" s="277"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="277"/>
+      <c r="S12" s="277"/>
+      <c r="T12" s="277"/>
       <c r="U12" s="76"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="81"/>
       <c r="AI12" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
@@ -24958,21 +24958,21 @@
       <c r="I13" s="281"/>
       <c r="J13" s="281"/>
       <c r="K13" s="282"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="289"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="289"/>
-      <c r="Q13" s="289"/>
-      <c r="R13" s="289"/>
-      <c r="S13" s="289"/>
-      <c r="T13" s="289"/>
+      <c r="L13" s="277"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="277"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="277"/>
       <c r="U13" s="85"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="81"/>
       <c r="AI13" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
@@ -24984,21 +24984,21 @@
       <c r="I14" s="284"/>
       <c r="J14" s="284"/>
       <c r="K14" s="285"/>
-      <c r="L14" s="289"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="289"/>
-      <c r="O14" s="289"/>
-      <c r="P14" s="289"/>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="289"/>
-      <c r="S14" s="289"/>
-      <c r="T14" s="289"/>
+      <c r="L14" s="277"/>
+      <c r="M14" s="277"/>
+      <c r="N14" s="277"/>
+      <c r="O14" s="277"/>
+      <c r="P14" s="277"/>
+      <c r="Q14" s="277"/>
+      <c r="R14" s="277"/>
+      <c r="S14" s="277"/>
+      <c r="T14" s="277"/>
       <c r="U14" s="85"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="81"/>
       <c r="AI14" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
@@ -25013,21 +25013,21 @@
       <c r="I15" s="287"/>
       <c r="J15" s="287"/>
       <c r="K15" s="288"/>
-      <c r="L15" s="289"/>
-      <c r="M15" s="289"/>
-      <c r="N15" s="289"/>
-      <c r="O15" s="289"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="289"/>
+      <c r="L15" s="277"/>
+      <c r="M15" s="277"/>
+      <c r="N15" s="277"/>
+      <c r="O15" s="277"/>
+      <c r="P15" s="277"/>
+      <c r="Q15" s="277"/>
+      <c r="R15" s="277"/>
+      <c r="S15" s="277"/>
+      <c r="T15" s="277"/>
       <c r="U15" s="76"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="81"/>
       <c r="AI15" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
@@ -25035,27 +25035,27 @@
       <c r="B16" s="76"/>
       <c r="F16" s="84"/>
       <c r="G16" s="268" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" s="269"/>
       <c r="I16" s="269"/>
       <c r="J16" s="269"/>
       <c r="K16" s="270"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="289"/>
-      <c r="P16" s="289"/>
-      <c r="Q16" s="289"/>
-      <c r="R16" s="289"/>
-      <c r="S16" s="289"/>
-      <c r="T16" s="289"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="277"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="277"/>
+      <c r="S16" s="277"/>
+      <c r="T16" s="277"/>
       <c r="U16" s="76"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="81"/>
       <c r="AI16" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.75" customHeight="1">
@@ -25067,21 +25067,21 @@
       <c r="I17" s="272"/>
       <c r="J17" s="272"/>
       <c r="K17" s="273"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="289"/>
-      <c r="N17" s="289"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="289"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="289"/>
-      <c r="T17" s="289"/>
+      <c r="L17" s="277"/>
+      <c r="M17" s="277"/>
+      <c r="N17" s="277"/>
+      <c r="O17" s="277"/>
+      <c r="P17" s="277"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="277"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
       <c r="U17" s="76"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="81"/>
       <c r="AI17" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.75" customHeight="1">
@@ -25096,21 +25096,21 @@
       <c r="I18" s="275"/>
       <c r="J18" s="275"/>
       <c r="K18" s="276"/>
-      <c r="L18" s="289"/>
-      <c r="M18" s="289"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="289"/>
-      <c r="P18" s="289"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="289"/>
-      <c r="S18" s="289"/>
-      <c r="T18" s="289"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="277"/>
+      <c r="N18" s="277"/>
+      <c r="O18" s="277"/>
+      <c r="P18" s="277"/>
+      <c r="Q18" s="277"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="277"/>
       <c r="U18" s="76"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="81"/>
       <c r="AI18" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.75" customHeight="1">
@@ -25118,21 +25118,21 @@
       <c r="B19" s="76"/>
       <c r="F19" s="84"/>
       <c r="G19" s="280" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="281"/>
       <c r="I19" s="281"/>
       <c r="J19" s="281"/>
       <c r="K19" s="282"/>
-      <c r="L19" s="289"/>
-      <c r="M19" s="289"/>
-      <c r="N19" s="289"/>
-      <c r="O19" s="289"/>
-      <c r="P19" s="289"/>
-      <c r="Q19" s="289"/>
-      <c r="R19" s="289"/>
-      <c r="S19" s="289"/>
-      <c r="T19" s="289"/>
+      <c r="L19" s="277"/>
+      <c r="M19" s="277"/>
+      <c r="N19" s="277"/>
+      <c r="O19" s="277"/>
+      <c r="P19" s="277"/>
+      <c r="Q19" s="277"/>
+      <c r="R19" s="277"/>
+      <c r="S19" s="277"/>
+      <c r="T19" s="277"/>
       <c r="U19" s="76"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
@@ -25147,15 +25147,15 @@
       <c r="I20" s="284"/>
       <c r="J20" s="284"/>
       <c r="K20" s="285"/>
-      <c r="L20" s="289"/>
-      <c r="M20" s="289"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="P20" s="289"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="289"/>
-      <c r="S20" s="289"/>
-      <c r="T20" s="289"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="277"/>
+      <c r="N20" s="277"/>
+      <c r="O20" s="277"/>
+      <c r="P20" s="277"/>
+      <c r="Q20" s="277"/>
+      <c r="R20" s="277"/>
+      <c r="S20" s="277"/>
+      <c r="T20" s="277"/>
       <c r="U20" s="76"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
@@ -25173,15 +25173,15 @@
       <c r="I21" s="287"/>
       <c r="J21" s="287"/>
       <c r="K21" s="288"/>
-      <c r="L21" s="289"/>
-      <c r="M21" s="289"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="289"/>
-      <c r="Q21" s="289"/>
-      <c r="R21" s="289"/>
-      <c r="S21" s="289"/>
-      <c r="T21" s="289"/>
+      <c r="L21" s="277"/>
+      <c r="M21" s="277"/>
+      <c r="N21" s="277"/>
+      <c r="O21" s="277"/>
+      <c r="P21" s="277"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="277"/>
+      <c r="S21" s="277"/>
+      <c r="T21" s="277"/>
       <c r="U21" s="76"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
@@ -25193,21 +25193,21 @@
       <c r="E22" s="84"/>
       <c r="F22" s="89"/>
       <c r="G22" s="280" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H22" s="281"/>
       <c r="I22" s="281"/>
       <c r="J22" s="281"/>
       <c r="K22" s="282"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="209"/>
-      <c r="R22" s="209"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="209"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
       <c r="U22" s="76"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
@@ -25223,21 +25223,21 @@
       <c r="I23" s="284"/>
       <c r="J23" s="284"/>
       <c r="K23" s="285"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="209"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="209"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="214"/>
+      <c r="Q23" s="214"/>
+      <c r="R23" s="214"/>
+      <c r="S23" s="214"/>
+      <c r="T23" s="214"/>
       <c r="U23" s="76"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="81"/>
       <c r="AI23" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="12.75" customHeight="1">
@@ -25252,21 +25252,21 @@
       <c r="I24" s="287"/>
       <c r="J24" s="287"/>
       <c r="K24" s="288"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
-      <c r="P24" s="209"/>
-      <c r="Q24" s="209"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="209"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="214"/>
+      <c r="Q24" s="214"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
       <c r="U24" s="93"/>
       <c r="AE24" s="93"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="81"/>
       <c r="AI24" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1">
@@ -25277,27 +25277,27 @@
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="280" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H25" s="281"/>
       <c r="I25" s="281"/>
       <c r="J25" s="281"/>
       <c r="K25" s="282"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="209"/>
-      <c r="O25" s="209"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="209"/>
-      <c r="R25" s="209"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
       <c r="U25" s="76"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="81"/>
       <c r="AI25" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="12.75" customHeight="1">
@@ -25312,21 +25312,21 @@
       <c r="I26" s="284"/>
       <c r="J26" s="284"/>
       <c r="K26" s="285"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="209"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="214"/>
+      <c r="Q26" s="214"/>
+      <c r="R26" s="214"/>
+      <c r="S26" s="214"/>
+      <c r="T26" s="214"/>
       <c r="U26" s="76"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="85"/>
       <c r="AG26" s="81"/>
       <c r="AI26" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="12.75" customHeight="1">
@@ -25341,15 +25341,15 @@
       <c r="I27" s="287"/>
       <c r="J27" s="287"/>
       <c r="K27" s="288"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="209"/>
-      <c r="S27" s="209"/>
-      <c r="T27" s="209"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
       <c r="U27" s="76"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="85"/>
@@ -25363,27 +25363,27 @@
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="268" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H28" s="269"/>
       <c r="I28" s="269"/>
       <c r="J28" s="269"/>
       <c r="K28" s="270"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209"/>
-      <c r="T28" s="209"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
       <c r="U28" s="76"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="85"/>
       <c r="AG28" s="81"/>
       <c r="AI28" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1">
@@ -25398,21 +25398,21 @@
       <c r="I29" s="272"/>
       <c r="J29" s="272"/>
       <c r="K29" s="273"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="209"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
       <c r="U29" s="76"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="85"/>
       <c r="AG29" s="81"/>
       <c r="AI29" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1">
@@ -25427,21 +25427,21 @@
       <c r="I30" s="272"/>
       <c r="J30" s="272"/>
       <c r="K30" s="273"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="209"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="209"/>
-      <c r="T30" s="209"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="214"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
       <c r="U30" s="76"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="85"/>
       <c r="AG30" s="81"/>
       <c r="AI30" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1">
@@ -25456,15 +25456,15 @@
       <c r="I31" s="272"/>
       <c r="J31" s="272"/>
       <c r="K31" s="273"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="209"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="214"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
       <c r="U31" s="76"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="85"/>
@@ -25482,21 +25482,21 @@
       <c r="I32" s="272"/>
       <c r="J32" s="272"/>
       <c r="K32" s="273"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="209"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="209"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="209"/>
-      <c r="T32" s="209"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
       <c r="U32" s="76"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="85"/>
       <c r="AG32" s="81"/>
       <c r="AI32" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="12.75" customHeight="1">
@@ -25511,21 +25511,21 @@
       <c r="I33" s="275"/>
       <c r="J33" s="275"/>
       <c r="K33" s="276"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="214"/>
+      <c r="Q33" s="214"/>
+      <c r="R33" s="214"/>
+      <c r="S33" s="214"/>
+      <c r="T33" s="214"/>
       <c r="U33" s="76"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="81"/>
       <c r="AI33" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="12.75" customHeight="1">
@@ -25563,7 +25563,7 @@
       <c r="AF34" s="85"/>
       <c r="AG34" s="81"/>
       <c r="AI34" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="12.75" customHeight="1">
@@ -25578,10 +25578,10 @@
       <c r="K35" s="76"/>
       <c r="L35" s="173"/>
       <c r="M35" s="94"/>
-      <c r="S35" s="277" t="s">
-        <v>236</v>
-      </c>
-      <c r="T35" s="277"/>
+      <c r="S35" s="289" t="s">
+        <v>235</v>
+      </c>
+      <c r="T35" s="289"/>
       <c r="U35" s="76"/>
       <c r="V35" s="94"/>
       <c r="W35" s="76"/>
@@ -25629,7 +25629,7 @@
       <c r="AF36" s="85"/>
       <c r="AG36" s="81"/>
       <c r="AI36" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="12.75" customHeight="1">
@@ -25649,10 +25649,10 @@
       <c r="P37" s="76"/>
       <c r="Q37" s="76"/>
       <c r="R37" s="76"/>
-      <c r="S37" s="278" t="s">
-        <v>232</v>
-      </c>
-      <c r="T37" s="279"/>
+      <c r="S37" s="290" t="s">
+        <v>231</v>
+      </c>
+      <c r="T37" s="291"/>
       <c r="U37" s="76"/>
       <c r="V37" s="94"/>
       <c r="W37" s="76"/>
@@ -25667,7 +25667,7 @@
       <c r="AF37" s="85"/>
       <c r="AG37" s="81"/>
       <c r="AI37" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="12.75" customHeight="1">
@@ -25705,7 +25705,7 @@
       <c r="AF38" s="85"/>
       <c r="AG38" s="81"/>
       <c r="AI38" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="12.75" customHeight="1">
@@ -25778,7 +25778,7 @@
       <c r="AF40" s="85"/>
       <c r="AG40" s="81"/>
       <c r="AI40" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="12.75" customHeight="1">
@@ -26361,6 +26361,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L13:T15"/>
+    <mergeCell ref="G28:K33"/>
+    <mergeCell ref="L28:T33"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="G19:K21"/>
+    <mergeCell ref="L19:T21"/>
+    <mergeCell ref="G22:K24"/>
+    <mergeCell ref="L22:T24"/>
+    <mergeCell ref="G25:K27"/>
+    <mergeCell ref="L25:T27"/>
     <mergeCell ref="G16:K18"/>
     <mergeCell ref="L16:T18"/>
     <mergeCell ref="A1:AG1"/>
@@ -26377,17 +26388,6 @@
     <mergeCell ref="G10:K12"/>
     <mergeCell ref="L10:T12"/>
     <mergeCell ref="G13:K15"/>
-    <mergeCell ref="L13:T15"/>
-    <mergeCell ref="G28:K33"/>
-    <mergeCell ref="L28:T33"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="G19:K21"/>
-    <mergeCell ref="L19:T21"/>
-    <mergeCell ref="G22:K24"/>
-    <mergeCell ref="L22:T24"/>
-    <mergeCell ref="G25:K27"/>
-    <mergeCell ref="L25:T27"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
